--- a/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOPPROB2-3-b.PRN.xlsx.3_long_HighestDemandInReachableArea.xlsx
+++ b/Zeus OS Workspace 2018 2.4/Zeus/data/TOP/Results/TOPPROB2-3-b.PRN.xlsx.3_long_HighestDemandInReachableArea.xlsx
@@ -26,7 +26,7 @@
     <t>Depot Total Demand: 70.0</t>
   </si>
   <si>
-    <t>Depot Total Distance: 11.674896240234375</t>
+    <t>Depot Total Distance: 5.8374481201171875</t>
   </si>
   <si>
     <t>Depot Total Trucks: 3</t>
